--- a/data_excel/786.xlsx
+++ b/data_excel/786.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前400題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28770" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
   <si>
     <t>公車上</t>
   </si>
@@ -138,6 +138,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -145,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +180,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -185,7 +196,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -208,14 +219,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -521,7 +548,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" activeCellId="2" sqref="C14 C16 C20"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -787,8 +814,8 @@
       <c r="A20" t="s">
         <v>35</v>
       </c>
-      <c r="B20" t="s">
-        <v>9</v>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>38</v>

--- a/data_excel/786.xlsx
+++ b/data_excel/786.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
   <si>
     <t>公車上</t>
   </si>
@@ -133,15 +133,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>nv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,7 +552,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B16" sqref="B16:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -770,11 +774,11 @@
       <c r="A16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>37</v>
+      <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -815,10 +819,10 @@
         <v>35</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
